--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="968">
   <si>
     <t>anchor score</t>
   </si>
@@ -376,475 +376,475 @@
     <t>serious</t>
   </si>
   <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>strong</t>
@@ -3283,10 +3283,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K3">
         <v>0.9230769230769231</v>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -3515,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K6">
         <v>0.8888888888888888</v>
@@ -3715,7 +3715,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K10">
         <v>0.8188976377952756</v>
@@ -3915,7 +3915,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K14">
         <v>0.7301587301587301</v>
@@ -3965,7 +3965,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K15">
         <v>0.7222222222222222</v>
@@ -4015,7 +4015,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K16">
         <v>0.6923076923076923</v>
@@ -4065,7 +4065,7 @@
         <v>155</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K17">
         <v>0.6737588652482269</v>
@@ -4115,28 +4115,28 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="K18">
-        <v>0.6566523605150214</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L18">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4165,28 +4165,28 @@
         <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="K19">
-        <v>0.6491228070175439</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4265,7 +4265,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K21">
         <v>0.631578947368421</v>
@@ -4515,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K26">
         <v>0.5714285714285714</v>
@@ -4615,7 +4615,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K28">
         <v>0.5384615384615384</v>
@@ -4665,7 +4665,7 @@
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K29">
         <v>0.5319148936170213</v>
@@ -4715,28 +4715,28 @@
         <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="K30">
-        <v>0.524390243902439</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L30">
         <v>172</v>
       </c>
       <c r="M30">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N30">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4915,7 +4915,7 @@
         <v>59</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K34">
         <v>0.5</v>
@@ -5115,7 +5115,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K38">
         <v>0.4705882352941176</v>
@@ -5165,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K39">
         <v>0.4583333333333333</v>
@@ -5365,7 +5365,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K43">
         <v>0.4204545454545455</v>
@@ -5515,7 +5515,7 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K46">
         <v>0.4015748031496063</v>
@@ -5715,7 +5715,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K50">
         <v>0.391304347826087</v>
@@ -6965,7 +6965,7 @@
         <v>23</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K75">
         <v>0.3</v>
@@ -7415,7 +7415,7 @@
         <v>9</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K84">
         <v>0.28</v>
@@ -7665,7 +7665,7 @@
         <v>465</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K89">
         <v>0.2708333333333333</v>
@@ -7715,7 +7715,7 @@
         <v>46</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K90">
         <v>0.2682926829268293</v>
@@ -7965,7 +7965,7 @@
         <v>10</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K95">
         <v>0.2564102564102564</v>
@@ -8415,7 +8415,7 @@
         <v>11</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K104">
         <v>0.244131455399061</v>
@@ -8815,7 +8815,7 @@
         <v>12</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K112">
         <v>0.2241379310344828</v>
@@ -8947,22 +8947,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C115">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F115">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>340</v>
@@ -8997,22 +8997,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>341</v>
@@ -9047,22 +9047,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>342</v>
@@ -9094,13 +9094,13 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -9112,10 +9112,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K118">
         <v>0.2222222222222222</v>
@@ -9144,25 +9144,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.06976744186046512</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F119">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>343</v>
@@ -9197,10 +9197,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>344</v>
@@ -9250,13 +9250,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F121">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9300,16 +9300,16 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>14</v>
@@ -9347,22 +9347,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E123">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>346</v>
@@ -9400,16 +9400,16 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>14</v>
@@ -9444,13 +9444,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9462,10 +9462,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K125">
         <v>0.2142857142857143</v>
@@ -9494,7 +9494,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>348</v>
@@ -9594,7 +9594,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9612,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>349</v>
@@ -9644,28 +9644,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K129">
         <v>0.2120481927710843</v>
@@ -9744,25 +9744,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>351</v>
@@ -9794,25 +9794,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>352</v>
@@ -9844,25 +9844,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>353</v>
@@ -9900,16 +9900,16 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>17</v>
@@ -9944,25 +9944,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05555555555555555</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>355</v>
@@ -9994,25 +9994,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>356</v>
@@ -10044,13 +10044,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05454545454545454</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>357</v>
@@ -10097,22 +10097,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F138">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>358</v>
@@ -10200,22 +10200,22 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>18</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K140">
         <v>0.1967213114754098</v>
@@ -10244,13 +10244,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>360</v>
@@ -10294,13 +10294,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -10312,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K142">
         <v>0.1923076923076923</v>
@@ -10344,28 +10344,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K143">
         <v>0.1904761904761905</v>
@@ -10394,25 +10394,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>361</v>
@@ -10444,25 +10444,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F145">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>362</v>
@@ -10500,13 +10500,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -10600,13 +10600,13 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -10644,25 +10644,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F149">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>365</v>
@@ -10694,7 +10694,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10712,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>366</v>
@@ -10750,13 +10750,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E151">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F151">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -10800,13 +10800,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -10844,25 +10844,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>369</v>
@@ -10894,25 +10894,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04545454545454546</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="E154">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>370</v>
@@ -10944,25 +10944,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>371</v>
@@ -10994,25 +10994,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04294478527607362</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C156">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>372</v>
@@ -11044,25 +11044,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="E157">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F157">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>373</v>
@@ -11094,7 +11094,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>374</v>
@@ -11144,25 +11144,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E159">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F159">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>375</v>
@@ -11194,7 +11194,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11212,10 +11212,10 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K160">
         <v>0.1764705882352941</v>
@@ -11244,25 +11244,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E161">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="F161">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>376</v>
@@ -11300,16 +11300,16 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>25</v>
@@ -11344,25 +11344,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>378</v>
@@ -11394,28 +11394,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E164">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K164">
         <v>0.1708860759493671</v>
@@ -11465,7 +11465,7 @@
         <v>26</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K165">
         <v>0.1702127659574468</v>
@@ -11494,28 +11494,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K166">
         <v>0.1694915254237288</v>
@@ -11544,25 +11544,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>379</v>
@@ -11600,16 +11600,16 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>27</v>
@@ -11644,25 +11644,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>381</v>
@@ -11694,25 +11694,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>382</v>
@@ -11744,7 +11744,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>383</v>
@@ -11794,25 +11794,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F172">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>384</v>
@@ -11850,22 +11850,22 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>30</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K173">
         <v>0.1666666666666667</v>
@@ -11894,25 +11894,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F174">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>385</v>
@@ -11944,25 +11944,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>386</v>
@@ -11994,25 +11994,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>387</v>
@@ -12044,25 +12044,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>388</v>
@@ -12094,25 +12094,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E178">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F178">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>389</v>
@@ -12144,25 +12144,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>390</v>
@@ -12194,25 +12194,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>391</v>
@@ -12244,25 +12244,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02857142857142857</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E181">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="F181">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>392</v>
@@ -12294,25 +12294,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>393</v>
@@ -12344,25 +12344,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02631578947368421</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>394</v>
@@ -12394,25 +12394,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>395</v>
@@ -12444,25 +12444,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02597402597402598</v>
+        <v>0.025</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>396</v>
@@ -12494,25 +12494,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>397</v>
@@ -12544,25 +12544,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>398</v>
@@ -12644,25 +12644,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>400</v>
@@ -12694,25 +12694,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02439024390243903</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>401</v>
@@ -12744,25 +12744,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02409638554216868</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F191">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>402</v>
@@ -12794,25 +12794,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>403</v>
@@ -12844,25 +12844,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E193">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F193">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>404</v>
@@ -12894,25 +12894,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>405</v>
@@ -12944,25 +12944,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E195">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F195">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>406</v>
@@ -12994,25 +12994,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>407</v>
@@ -13044,25 +13044,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E197">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F197">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>408</v>
@@ -13094,25 +13094,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>409</v>
@@ -13144,25 +13144,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02083333333333333</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E199">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>410</v>
@@ -13194,25 +13194,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>411</v>
@@ -13244,25 +13244,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02013422818791946</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>412</v>
@@ -13294,25 +13294,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="F202">
-        <v>0.08999999999999997</v>
+        <v>0.29</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>413</v>
@@ -13344,28 +13344,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E203">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F203">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K203">
         <v>0.1656050955414013</v>
@@ -13394,28 +13394,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01923076923076923</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K204">
         <v>0.1612903225806452</v>
@@ -13444,25 +13444,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E205">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>414</v>
@@ -13494,7 +13494,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13512,10 +13512,10 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K206">
         <v>0.1607142857142857</v>
@@ -13544,28 +13544,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01754385964912281</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K207">
         <v>0.1604938271604938</v>
@@ -13594,25 +13594,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>415</v>
@@ -13644,25 +13644,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>416</v>
@@ -13694,25 +13694,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>417</v>
@@ -13744,28 +13744,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01587301587301587</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K211">
         <v>0.1578947368421053</v>
@@ -13794,25 +13794,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01587301587301587</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>418</v>
@@ -13844,25 +13844,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01515151515151515</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E213">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F213">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>419</v>
@@ -13894,25 +13894,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01503759398496241</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F214">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>420</v>
@@ -13944,25 +13944,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01408450704225352</v>
+        <v>0.0125</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>421</v>
@@ -13994,25 +13994,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0131578947368421</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>422</v>
@@ -14044,25 +14044,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0125</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>423</v>
@@ -14094,25 +14094,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01234567901234568</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>424</v>
@@ -14144,25 +14144,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01226993865030675</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>425</v>
@@ -14194,25 +14194,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01204819277108434</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>426</v>
@@ -14244,28 +14244,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01176470588235294</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K221">
         <v>0.1473684210526316</v>
@@ -14294,25 +14294,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01123595505617977</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>427</v>
@@ -14344,7 +14344,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0108695652173913</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14362,10 +14362,10 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K223">
         <v>0.1428571428571428</v>
@@ -14394,25 +14394,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01052631578947368</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>428</v>
@@ -14444,25 +14444,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01041666666666667</v>
+        <v>0.01013513513513514</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E225">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F225">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>429</v>
@@ -14494,25 +14494,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01030927835051546</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F226">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>430</v>
@@ -14544,25 +14544,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01013513513513514</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
         <v>3</v>
       </c>
-      <c r="D227">
-        <v>34</v>
-      </c>
       <c r="E227">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>431</v>
@@ -14594,25 +14594,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0101010101010101</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F228">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>432</v>
@@ -14644,25 +14644,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0101010101010101</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E229">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F229">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>433</v>
@@ -14694,25 +14694,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.009803921568627451</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E230">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F230">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>434</v>
@@ -14744,25 +14744,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.009345794392523364</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="E231">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F231">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>435</v>
@@ -14794,25 +14794,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.00909090909090909</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E232">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F232">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>327</v>
+        <v>114</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>436</v>
@@ -14844,25 +14844,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.008695652173913044</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F233">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>437</v>
@@ -14894,25 +14894,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.008695652173913044</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E234">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F234">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>438</v>
@@ -14944,25 +14944,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.008547008547008548</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E235">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F235">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>439</v>
@@ -14994,25 +14994,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.008547008547008548</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>440</v>
@@ -15044,25 +15044,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.008264462809917356</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E237">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F237">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>441</v>
@@ -15094,25 +15094,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.007936507936507936</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>442</v>
@@ -15144,13 +15144,13 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.007575757575757576</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E239">
         <v>0.96</v>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>443</v>
@@ -15194,13 +15194,13 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.007352941176470588</v>
+        <v>0.006644518272425249</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D240">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E240">
         <v>0.92</v>
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>135</v>
+        <v>598</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>444</v>
@@ -15244,25 +15244,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0072992700729927</v>
+        <v>0.006297229219143577</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D241">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="E241">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F241">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>136</v>
+        <v>789</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>445</v>
@@ -15294,25 +15294,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.006644518272425249</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E242">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F242">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>598</v>
+        <v>158</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>446</v>
@@ -15344,25 +15344,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.006297229219143577</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>789</v>
+        <v>160</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>447</v>
@@ -15394,25 +15394,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.006289308176100629</v>
+        <v>0.005671077504725898</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D244">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E244">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="F244">
-        <v>0.06999999999999995</v>
+        <v>0.16</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>158</v>
+        <v>526</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>448</v>
@@ -15444,25 +15444,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.006211180124223602</v>
+        <v>0.005449591280653951</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E245">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F245">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>449</v>
@@ -15494,25 +15494,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.005671077504725898</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E246">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="F246">
-        <v>0.16</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>526</v>
+        <v>195</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>450</v>
@@ -15544,25 +15544,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.005449591280653951</v>
+        <v>0.005096839959225281</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D247">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="E247">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F247">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>365</v>
+        <v>1952</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>451</v>
@@ -15594,25 +15594,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.00510204081632653</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D248">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E248">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F248">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>195</v>
+        <v>804</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>452</v>
@@ -15644,13 +15644,13 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.005096839959225281</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="C249">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="E249">
         <v>0.95</v>
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>1952</v>
+        <v>215</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>453</v>
@@ -15694,25 +15694,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.004950495049504951</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E250">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F250">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>804</v>
+        <v>228</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>454</v>
@@ -15744,25 +15744,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.004629629629629629</v>
+        <v>0.003663003663003663</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D251">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E251">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F251">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>215</v>
+        <v>816</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>455</v>
@@ -15794,25 +15794,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.004366812227074236</v>
+        <v>0.003619909502262444</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E252">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F252">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>228</v>
+        <v>1101</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>456</v>
@@ -15844,25 +15844,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.003663003663003663</v>
+        <v>0.003205128205128205</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="E253">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F253">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>816</v>
+        <v>311</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>457</v>
@@ -15894,25 +15894,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.003619909502262444</v>
+        <v>0.003141361256544503</v>
       </c>
       <c r="C254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D254">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E254">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F254">
-        <v>0.06999999999999995</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>1101</v>
+        <v>952</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>458</v>
@@ -15944,25 +15944,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.003205128205128205</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>459</v>
@@ -15994,25 +15994,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.003141361256544503</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.1899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>952</v>
+        <v>459</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>460</v>
@@ -16044,25 +16044,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002680965147453083</v>
+        <v>0.002139800285306705</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>372</v>
+        <v>2798</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>461</v>
@@ -16094,25 +16094,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.002173913043478261</v>
+        <v>0.001306335728282169</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F258">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>459</v>
+        <v>3058</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>462</v>
@@ -16140,30 +16140,6 @@
       </c>
     </row>
     <row r="259" spans="1:17">
-      <c r="A259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259">
-        <v>0.002139800285306705</v>
-      </c>
-      <c r="C259">
-        <v>6</v>
-      </c>
-      <c r="D259">
-        <v>309</v>
-      </c>
-      <c r="E259">
-        <v>0.98</v>
-      </c>
-      <c r="F259">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259">
-        <v>2798</v>
-      </c>
       <c r="J259" s="1" t="s">
         <v>463</v>
       </c>
@@ -16190,32 +16166,8 @@
       </c>
     </row>
     <row r="260" spans="1:17">
-      <c r="A260" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B260">
-        <v>0.001306335728282169</v>
-      </c>
-      <c r="C260">
-        <v>4</v>
-      </c>
-      <c r="D260">
-        <v>143</v>
-      </c>
-      <c r="E260">
-        <v>0.97</v>
-      </c>
-      <c r="F260">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260">
-        <v>3058</v>
-      </c>
       <c r="J260" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K260">
         <v>0.1363636363636364</v>
@@ -16293,7 +16245,7 @@
     </row>
     <row r="263" spans="1:17">
       <c r="J263" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K263">
         <v>0.1351351351351351</v>
@@ -16501,7 +16453,7 @@
     </row>
     <row r="271" spans="1:17">
       <c r="J271" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K271">
         <v>0.1317829457364341</v>
@@ -16527,7 +16479,7 @@
     </row>
     <row r="272" spans="1:17">
       <c r="J272" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K272">
         <v>0.1304347826086956</v>
@@ -16553,7 +16505,7 @@
     </row>
     <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K273">
         <v>0.1304347826086956</v>
@@ -16605,7 +16557,7 @@
     </row>
     <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K275">
         <v>0.1304347826086956</v>
@@ -16683,7 +16635,7 @@
     </row>
     <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K278">
         <v>0.1278195488721804</v>
@@ -17541,7 +17493,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K311">
         <v>0.1206896551724138</v>
@@ -17619,7 +17571,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K314">
         <v>0.1183574879227053</v>
@@ -17645,7 +17597,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K315">
         <v>0.1176470588235294</v>
@@ -17775,7 +17727,7 @@
     </row>
     <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K320">
         <v>0.1153846153846154</v>
@@ -17879,7 +17831,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K324">
         <v>0.1124859392575928</v>
@@ -18685,7 +18637,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K355">
         <v>0.1071428571428571</v>
@@ -18711,7 +18663,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K356">
         <v>0.1063218390804598</v>
@@ -19595,7 +19547,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K390">
         <v>0.09771041599484037</v>
@@ -19699,7 +19651,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K394">
         <v>0.09567901234567901</v>
@@ -19725,7 +19677,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K395">
         <v>0.09523809523809523</v>
@@ -19907,7 +19859,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K402">
         <v>0.09131403118040089</v>
@@ -20167,7 +20119,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K412">
         <v>0.09090909090909091</v>
@@ -20323,7 +20275,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K418">
         <v>0.09090909090909091</v>
@@ -20375,7 +20327,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K420">
         <v>0.09090909090909091</v>
@@ -20557,7 +20509,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K427">
         <v>0.09009009009009009</v>
@@ -20583,7 +20535,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K428">
         <v>0.08898305084745763</v>
@@ -20609,7 +20561,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K429">
         <v>0.08878504672897196</v>
@@ -20869,7 +20821,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K439">
         <v>0.08485700890764182</v>
@@ -21545,7 +21497,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K465">
         <v>0.07936507936507936</v>
@@ -22039,7 +21991,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K484">
         <v>0.07602339181286549</v>
@@ -22065,7 +22017,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K485">
         <v>0.07575757575757576</v>
@@ -22117,7 +22069,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K487">
         <v>0.07534246575342465</v>
@@ -22195,7 +22147,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K490">
         <v>0.075</v>
@@ -22221,7 +22173,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K491">
         <v>0.07430340557275542</v>
@@ -22403,7 +22355,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K498">
         <v>0.07142857142857142</v>
@@ -22611,7 +22563,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K506">
         <v>0.07142857142857142</v>
@@ -23183,7 +23135,7 @@
     </row>
     <row r="528" spans="10:17">
       <c r="J528" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K528">
         <v>0.06836616454229433</v>
@@ -23495,7 +23447,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K540">
         <v>0.06666666666666667</v>
@@ -23859,7 +23811,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K554">
         <v>0.06382978723404255</v>
@@ -24379,7 +24331,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K574">
         <v>0.06060606060606061</v>
@@ -24405,7 +24357,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K575">
         <v>0.06060606060606061</v>
@@ -24431,7 +24383,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K576">
         <v>0.06060606060606061</v>
@@ -24587,7 +24539,7 @@
     </row>
     <row r="582" spans="10:17">
       <c r="J582" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K582">
         <v>0.05882352941176471</v>
@@ -25237,7 +25189,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K607">
         <v>0.05555555555555555</v>
@@ -25731,7 +25683,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K626">
         <v>0.05208333333333334</v>
@@ -25861,7 +25813,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K631">
         <v>0.05063291139240506</v>
@@ -25991,7 +25943,7 @@
     </row>
     <row r="636" spans="10:17">
       <c r="J636" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K636">
         <v>0.05</v>
@@ -26277,7 +26229,7 @@
     </row>
     <row r="647" spans="10:17">
       <c r="J647" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K647">
         <v>0.04840103716508211</v>
@@ -26303,7 +26255,7 @@
     </row>
     <row r="648" spans="10:17">
       <c r="J648" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K648">
         <v>0.04838709677419355</v>
@@ -26485,7 +26437,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K655">
         <v>0.04761904761904762</v>
@@ -26615,7 +26567,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K660">
         <v>0.04672897196261682</v>
@@ -26667,7 +26619,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K662">
         <v>0.04615384615384616</v>
@@ -26745,7 +26697,7 @@
     </row>
     <row r="665" spans="10:17">
       <c r="J665" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K665">
         <v>0.04545454545454546</v>
@@ -26797,7 +26749,7 @@
     </row>
     <row r="667" spans="10:17">
       <c r="J667" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K667">
         <v>0.04545454545454546</v>
@@ -27031,7 +26983,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K676">
         <v>0.04347826086956522</v>
@@ -27265,7 +27217,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K685">
         <v>0.0425531914893617</v>
@@ -27421,7 +27373,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K691">
         <v>0.04081632653061224</v>
@@ -28149,7 +28101,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K719">
         <v>0.03614457831325301</v>
@@ -28201,7 +28153,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K721">
         <v>0.03571428571428571</v>
@@ -28253,7 +28205,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K723">
         <v>0.03571428571428571</v>
@@ -28279,7 +28231,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K724">
         <v>0.03571428571428571</v>
@@ -28747,7 +28699,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K742">
         <v>0.03296703296703297</v>
@@ -28773,7 +28725,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K743">
         <v>0.03225806451612903</v>
@@ -29059,7 +29011,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K754">
         <v>0.0303030303030303</v>
@@ -29163,7 +29115,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K758">
         <v>0.02952029520295203</v>
@@ -29501,7 +29453,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K771">
         <v>0.02631578947368421</v>
@@ -30203,7 +30155,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K798">
         <v>0.02040816326530612</v>
@@ -30281,7 +30233,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K801">
         <v>0.02</v>
@@ -30827,7 +30779,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K822">
         <v>0.01347150259067358</v>
@@ -31009,7 +30961,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K829">
         <v>0.0101010101010101</v>
@@ -31035,7 +30987,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K830">
         <v>0.009345794392523364</v>
@@ -31087,7 +31039,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K832">
         <v>0.008639308855291577</v>
@@ -31243,7 +31195,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K838">
         <v>0.004366812227074236</v>
